--- a/excel_carga_masiva.xlsx
+++ b/excel_carga_masiva.xlsx
@@ -442,10 +442,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SAMSUNG PM P4049798I</v>
+        <v>SAMSUNG PM P4980809I</v>
       </c>
       <c r="B2" t="str">
-        <v>P4049798I</v>
+        <v>P4980809I</v>
       </c>
       <c r="C2" t="str">
         <v>familycodex</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SAMSUNG PM P4049798N</v>
+        <v>SAMSUNG PM P4980809N</v>
       </c>
       <c r="B3" t="str">
-        <v>P4049798N</v>
+        <v>P4980809N</v>
       </c>
       <c r="C3" t="str">
         <v>familycodex</v>
@@ -513,158 +513,6 @@
         <v>true</v>
       </c>
       <c r="L3" t="str">
-        <v>2024-10-07</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>SAMSUNG PM P4049799I</v>
-      </c>
-      <c r="B4" t="str">
-        <v>P4049799I</v>
-      </c>
-      <c r="C4" t="str">
-        <v>familycodex</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Motorola</v>
-      </c>
-      <c r="E4" t="str">
-        <v>X57</v>
-      </c>
-      <c r="F4" t="str">
-        <v>High</v>
-      </c>
-      <c r="G4" t="str">
-        <v>High End A</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Nano SIM</v>
-      </c>
-      <c r="I4" t="str">
-        <v>12 meses</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Si</v>
-      </c>
-      <c r="K4" t="str">
-        <v>true</v>
-      </c>
-      <c r="L4" t="str">
-        <v>2024-10-07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>SAMSUNG PM P4049799N</v>
-      </c>
-      <c r="B5" t="str">
-        <v>P4049799N</v>
-      </c>
-      <c r="C5" t="str">
-        <v>familycodex</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Motorola</v>
-      </c>
-      <c r="E5" t="str">
-        <v>X58</v>
-      </c>
-      <c r="F5" t="str">
-        <v>High</v>
-      </c>
-      <c r="G5" t="str">
-        <v>High End A</v>
-      </c>
-      <c r="H5" t="str">
-        <v>Nano SIM</v>
-      </c>
-      <c r="I5" t="str">
-        <v>12 meses</v>
-      </c>
-      <c r="J5" t="str">
-        <v>Si</v>
-      </c>
-      <c r="K5" t="str">
-        <v>true</v>
-      </c>
-      <c r="L5" t="str">
-        <v>2024-10-07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SAMSUNG PM P4049800N</v>
-      </c>
-      <c r="B6" t="str">
-        <v>P4049800N</v>
-      </c>
-      <c r="C6" t="str">
-        <v>familycodex</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Motorola</v>
-      </c>
-      <c r="E6" t="str">
-        <v>X59</v>
-      </c>
-      <c r="F6" t="str">
-        <v>High</v>
-      </c>
-      <c r="G6" t="str">
-        <v>High End A</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Nano SIM</v>
-      </c>
-      <c r="I6" t="str">
-        <v>12 meses</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Si</v>
-      </c>
-      <c r="K6" t="str">
-        <v>true</v>
-      </c>
-      <c r="L6" t="str">
-        <v>2024-10-07</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SAMSUNG PM P4049800I</v>
-      </c>
-      <c r="B7" t="str">
-        <v>P4049800I</v>
-      </c>
-      <c r="C7" t="str">
-        <v>familycodex</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Motorola</v>
-      </c>
-      <c r="E7" t="str">
-        <v>X60</v>
-      </c>
-      <c r="F7" t="str">
-        <v>High</v>
-      </c>
-      <c r="G7" t="str">
-        <v>High End A</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Nano SIM</v>
-      </c>
-      <c r="I7" t="str">
-        <v>12 meses</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Si</v>
-      </c>
-      <c r="K7" t="str">
-        <v>true</v>
-      </c>
-      <c r="L7" t="str">
         <v>2024-10-07</v>
       </c>
     </row>

--- a/excel_carga_masiva.xlsx
+++ b/excel_carga_masiva.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -442,10 +442,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SAMSUNG PM P4980809I</v>
+        <v>SAMSUNG PM P8313846N</v>
       </c>
       <c r="B2" t="str">
-        <v>P4980809I</v>
+        <v>P8313846N</v>
       </c>
       <c r="C2" t="str">
         <v>familycodex</v>
@@ -475,15 +475,15 @@
         <v>true</v>
       </c>
       <c r="L2" t="str">
-        <v>2024-10-07</v>
+        <v>2024-10-26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SAMSUNG PM P4980809N</v>
+        <v>SAMSUNG PM P8313846I</v>
       </c>
       <c r="B3" t="str">
-        <v>P4980809N</v>
+        <v>P8313846I</v>
       </c>
       <c r="C3" t="str">
         <v>familycodex</v>
@@ -513,13 +513,241 @@
         <v>true</v>
       </c>
       <c r="L3" t="str">
-        <v>2024-10-07</v>
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>SAMSUNG PM P8313847N</v>
+      </c>
+      <c r="B4" t="str">
+        <v>P8313847N</v>
+      </c>
+      <c r="C4" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E4" t="str">
+        <v>X57</v>
+      </c>
+      <c r="F4" t="str">
+        <v>High</v>
+      </c>
+      <c r="G4" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H4" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I4" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J4" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K4" t="str">
+        <v>true</v>
+      </c>
+      <c r="L4" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>SAMSUNG PM P8313847I</v>
+      </c>
+      <c r="B5" t="str">
+        <v>P8313847I</v>
+      </c>
+      <c r="C5" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E5" t="str">
+        <v>X58</v>
+      </c>
+      <c r="F5" t="str">
+        <v>High</v>
+      </c>
+      <c r="G5" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I5" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J5" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K5" t="str">
+        <v>true</v>
+      </c>
+      <c r="L5" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>SAMSUNG PM P8313848N</v>
+      </c>
+      <c r="B6" t="str">
+        <v>P8313848N</v>
+      </c>
+      <c r="C6" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E6" t="str">
+        <v>X59</v>
+      </c>
+      <c r="F6" t="str">
+        <v>High</v>
+      </c>
+      <c r="G6" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H6" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I6" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J6" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K6" t="str">
+        <v>true</v>
+      </c>
+      <c r="L6" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>SAMSUNG PM P8313848I</v>
+      </c>
+      <c r="B7" t="str">
+        <v>P8313848I</v>
+      </c>
+      <c r="C7" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E7" t="str">
+        <v>X60</v>
+      </c>
+      <c r="F7" t="str">
+        <v>High</v>
+      </c>
+      <c r="G7" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I7" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J7" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K7" t="str">
+        <v>true</v>
+      </c>
+      <c r="L7" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>SAMSUNG PM P8313849I</v>
+      </c>
+      <c r="B8" t="str">
+        <v>P8313849I</v>
+      </c>
+      <c r="C8" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E8" t="str">
+        <v>X61</v>
+      </c>
+      <c r="F8" t="str">
+        <v>High</v>
+      </c>
+      <c r="G8" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I8" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J8" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K8" t="str">
+        <v>true</v>
+      </c>
+      <c r="L8" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>SAMSUNG PM P8313849N</v>
+      </c>
+      <c r="B9" t="str">
+        <v>P8313849N</v>
+      </c>
+      <c r="C9" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E9" t="str">
+        <v>X62</v>
+      </c>
+      <c r="F9" t="str">
+        <v>High</v>
+      </c>
+      <c r="G9" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H9" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I9" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J9" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K9" t="str">
+        <v>true</v>
+      </c>
+      <c r="L9" t="str">
+        <v>2024-10-26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L101"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel_carga_masiva.xlsx
+++ b/excel_carga_masiva.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -442,10 +442,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SAMSUNG PM P8313846N</v>
+        <v>SAMSUNG PM P6542667I</v>
       </c>
       <c r="B2" t="str">
-        <v>P8313846N</v>
+        <v>P6542667I</v>
       </c>
       <c r="C2" t="str">
         <v>familycodex</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SAMSUNG PM P8313846I</v>
+        <v>SAMSUNG PM P6542667N</v>
       </c>
       <c r="B3" t="str">
-        <v>P8313846I</v>
+        <v>P6542667N</v>
       </c>
       <c r="C3" t="str">
         <v>familycodex</v>
@@ -518,10 +518,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SAMSUNG PM P8313847N</v>
+        <v>SAMSUNG PM P6542668I</v>
       </c>
       <c r="B4" t="str">
-        <v>P8313847N</v>
+        <v>P6542668I</v>
       </c>
       <c r="C4" t="str">
         <v>familycodex</v>
@@ -556,10 +556,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SAMSUNG PM P8313847I</v>
+        <v>SAMSUNG PM P6542668N</v>
       </c>
       <c r="B5" t="str">
-        <v>P8313847I</v>
+        <v>P6542668N</v>
       </c>
       <c r="C5" t="str">
         <v>familycodex</v>
@@ -594,10 +594,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>SAMSUNG PM P8313848N</v>
+        <v>SAMSUNG PM P6542669N</v>
       </c>
       <c r="B6" t="str">
-        <v>P8313848N</v>
+        <v>P6542669N</v>
       </c>
       <c r="C6" t="str">
         <v>familycodex</v>
@@ -632,10 +632,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>SAMSUNG PM P8313848I</v>
+        <v>SAMSUNG PM P6542669I</v>
       </c>
       <c r="B7" t="str">
-        <v>P8313848I</v>
+        <v>P6542669I</v>
       </c>
       <c r="C7" t="str">
         <v>familycodex</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>SAMSUNG PM P8313849I</v>
+        <v>SAMSUNG PM P6542670I</v>
       </c>
       <c r="B8" t="str">
-        <v>P8313849I</v>
+        <v>P6542670I</v>
       </c>
       <c r="C8" t="str">
         <v>familycodex</v>
@@ -708,10 +708,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>SAMSUNG PM P8313849N</v>
+        <v>SAMSUNG PM P6542670N</v>
       </c>
       <c r="B9" t="str">
-        <v>P8313849N</v>
+        <v>P6542670N</v>
       </c>
       <c r="C9" t="str">
         <v>familycodex</v>
@@ -741,13 +741,849 @@
         <v>true</v>
       </c>
       <c r="L9" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>SAMSUNG PM P6542671I</v>
+      </c>
+      <c r="B10" t="str">
+        <v>P6542671I</v>
+      </c>
+      <c r="C10" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E10" t="str">
+        <v>X63</v>
+      </c>
+      <c r="F10" t="str">
+        <v>High</v>
+      </c>
+      <c r="G10" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I10" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J10" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K10" t="str">
+        <v>true</v>
+      </c>
+      <c r="L10" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>SAMSUNG PM P6542671N</v>
+      </c>
+      <c r="B11" t="str">
+        <v>P6542671N</v>
+      </c>
+      <c r="C11" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E11" t="str">
+        <v>X64</v>
+      </c>
+      <c r="F11" t="str">
+        <v>High</v>
+      </c>
+      <c r="G11" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I11" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J11" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K11" t="str">
+        <v>true</v>
+      </c>
+      <c r="L11" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>SAMSUNG PM P6542672I</v>
+      </c>
+      <c r="B12" t="str">
+        <v>P6542672I</v>
+      </c>
+      <c r="C12" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D12" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E12" t="str">
+        <v>X65</v>
+      </c>
+      <c r="F12" t="str">
+        <v>High</v>
+      </c>
+      <c r="G12" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I12" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K12" t="str">
+        <v>true</v>
+      </c>
+      <c r="L12" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>SAMSUNG PM P6542672N</v>
+      </c>
+      <c r="B13" t="str">
+        <v>P6542672N</v>
+      </c>
+      <c r="C13" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D13" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E13" t="str">
+        <v>X66</v>
+      </c>
+      <c r="F13" t="str">
+        <v>High</v>
+      </c>
+      <c r="G13" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I13" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J13" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K13" t="str">
+        <v>true</v>
+      </c>
+      <c r="L13" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>SAMSUNG PM P6542673N</v>
+      </c>
+      <c r="B14" t="str">
+        <v>P6542673N</v>
+      </c>
+      <c r="C14" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D14" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E14" t="str">
+        <v>X67</v>
+      </c>
+      <c r="F14" t="str">
+        <v>High</v>
+      </c>
+      <c r="G14" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I14" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J14" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K14" t="str">
+        <v>true</v>
+      </c>
+      <c r="L14" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>SAMSUNG PM P6542673I</v>
+      </c>
+      <c r="B15" t="str">
+        <v>P6542673I</v>
+      </c>
+      <c r="C15" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E15" t="str">
+        <v>X68</v>
+      </c>
+      <c r="F15" t="str">
+        <v>High</v>
+      </c>
+      <c r="G15" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I15" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J15" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K15" t="str">
+        <v>true</v>
+      </c>
+      <c r="L15" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>SAMSUNG PM P6542674N</v>
+      </c>
+      <c r="B16" t="str">
+        <v>P6542674N</v>
+      </c>
+      <c r="C16" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E16" t="str">
+        <v>X69</v>
+      </c>
+      <c r="F16" t="str">
+        <v>High</v>
+      </c>
+      <c r="G16" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I16" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J16" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K16" t="str">
+        <v>true</v>
+      </c>
+      <c r="L16" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>SAMSUNG PM P6542674I</v>
+      </c>
+      <c r="B17" t="str">
+        <v>P6542674I</v>
+      </c>
+      <c r="C17" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E17" t="str">
+        <v>X70</v>
+      </c>
+      <c r="F17" t="str">
+        <v>High</v>
+      </c>
+      <c r="G17" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I17" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J17" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K17" t="str">
+        <v>true</v>
+      </c>
+      <c r="L17" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>SAMSUNG PM P6542675I</v>
+      </c>
+      <c r="B18" t="str">
+        <v>P6542675I</v>
+      </c>
+      <c r="C18" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E18" t="str">
+        <v>X71</v>
+      </c>
+      <c r="F18" t="str">
+        <v>High</v>
+      </c>
+      <c r="G18" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H18" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I18" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J18" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K18" t="str">
+        <v>true</v>
+      </c>
+      <c r="L18" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>SAMSUNG PM P6542675N</v>
+      </c>
+      <c r="B19" t="str">
+        <v>P6542675N</v>
+      </c>
+      <c r="C19" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E19" t="str">
+        <v>X72</v>
+      </c>
+      <c r="F19" t="str">
+        <v>High</v>
+      </c>
+      <c r="G19" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H19" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I19" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J19" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K19" t="str">
+        <v>true</v>
+      </c>
+      <c r="L19" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>SAMSUNG PM P6542676N</v>
+      </c>
+      <c r="B20" t="str">
+        <v>P6542676N</v>
+      </c>
+      <c r="C20" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E20" t="str">
+        <v>X73</v>
+      </c>
+      <c r="F20" t="str">
+        <v>High</v>
+      </c>
+      <c r="G20" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I20" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J20" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K20" t="str">
+        <v>true</v>
+      </c>
+      <c r="L20" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>SAMSUNG PM P6542676I</v>
+      </c>
+      <c r="B21" t="str">
+        <v>P6542676I</v>
+      </c>
+      <c r="C21" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E21" t="str">
+        <v>X74</v>
+      </c>
+      <c r="F21" t="str">
+        <v>High</v>
+      </c>
+      <c r="G21" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I21" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J21" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K21" t="str">
+        <v>true</v>
+      </c>
+      <c r="L21" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>SAMSUNG PM P6542677N</v>
+      </c>
+      <c r="B22" t="str">
+        <v>P6542677N</v>
+      </c>
+      <c r="C22" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E22" t="str">
+        <v>X75</v>
+      </c>
+      <c r="F22" t="str">
+        <v>High</v>
+      </c>
+      <c r="G22" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I22" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J22" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K22" t="str">
+        <v>true</v>
+      </c>
+      <c r="L22" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>SAMSUNG PM P6542677I</v>
+      </c>
+      <c r="B23" t="str">
+        <v>P6542677I</v>
+      </c>
+      <c r="C23" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E23" t="str">
+        <v>X76</v>
+      </c>
+      <c r="F23" t="str">
+        <v>High</v>
+      </c>
+      <c r="G23" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I23" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J23" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K23" t="str">
+        <v>true</v>
+      </c>
+      <c r="L23" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>SAMSUNG PM P6542678I</v>
+      </c>
+      <c r="B24" t="str">
+        <v>P6542678I</v>
+      </c>
+      <c r="C24" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E24" t="str">
+        <v>X77</v>
+      </c>
+      <c r="F24" t="str">
+        <v>High</v>
+      </c>
+      <c r="G24" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I24" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J24" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K24" t="str">
+        <v>true</v>
+      </c>
+      <c r="L24" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>SAMSUNG PM P6542678N</v>
+      </c>
+      <c r="B25" t="str">
+        <v>P6542678N</v>
+      </c>
+      <c r="C25" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E25" t="str">
+        <v>X78</v>
+      </c>
+      <c r="F25" t="str">
+        <v>High</v>
+      </c>
+      <c r="G25" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I25" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J25" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K25" t="str">
+        <v>true</v>
+      </c>
+      <c r="L25" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>SAMSUNG PM P6542679N</v>
+      </c>
+      <c r="B26" t="str">
+        <v>P6542679N</v>
+      </c>
+      <c r="C26" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E26" t="str">
+        <v>X79</v>
+      </c>
+      <c r="F26" t="str">
+        <v>High</v>
+      </c>
+      <c r="G26" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I26" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J26" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K26" t="str">
+        <v>true</v>
+      </c>
+      <c r="L26" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>SAMSUNG PM P6542679I</v>
+      </c>
+      <c r="B27" t="str">
+        <v>P6542679I</v>
+      </c>
+      <c r="C27" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E27" t="str">
+        <v>X80</v>
+      </c>
+      <c r="F27" t="str">
+        <v>High</v>
+      </c>
+      <c r="G27" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I27" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J27" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K27" t="str">
+        <v>true</v>
+      </c>
+      <c r="L27" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>SAMSUNG PM P6542680I</v>
+      </c>
+      <c r="B28" t="str">
+        <v>P6542680I</v>
+      </c>
+      <c r="C28" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E28" t="str">
+        <v>X81</v>
+      </c>
+      <c r="F28" t="str">
+        <v>High</v>
+      </c>
+      <c r="G28" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I28" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K28" t="str">
+        <v>true</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>SAMSUNG PM P6542680N</v>
+      </c>
+      <c r="B29" t="str">
+        <v>P6542680N</v>
+      </c>
+      <c r="C29" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E29" t="str">
+        <v>X82</v>
+      </c>
+      <c r="F29" t="str">
+        <v>High</v>
+      </c>
+      <c r="G29" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I29" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J29" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K29" t="str">
+        <v>true</v>
+      </c>
+      <c r="L29" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>SAMSUNG PM P6542681I</v>
+      </c>
+      <c r="B30" t="str">
+        <v>P6542681I</v>
+      </c>
+      <c r="C30" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E30" t="str">
+        <v>X83</v>
+      </c>
+      <c r="F30" t="str">
+        <v>High</v>
+      </c>
+      <c r="G30" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I30" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J30" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K30" t="str">
+        <v>true</v>
+      </c>
+      <c r="L30" t="str">
+        <v>2024-10-26</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>SAMSUNG PM P6542681N</v>
+      </c>
+      <c r="B31" t="str">
+        <v>P6542681N</v>
+      </c>
+      <c r="C31" t="str">
+        <v>familycodex</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Motorola</v>
+      </c>
+      <c r="E31" t="str">
+        <v>X84</v>
+      </c>
+      <c r="F31" t="str">
+        <v>High</v>
+      </c>
+      <c r="G31" t="str">
+        <v>High End A</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Nano SIM</v>
+      </c>
+      <c r="I31" t="str">
+        <v>12 meses</v>
+      </c>
+      <c r="J31" t="str">
+        <v>Si</v>
+      </c>
+      <c r="K31" t="str">
+        <v>true</v>
+      </c>
+      <c r="L31" t="str">
         <v>2024-10-26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L17"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/excel_carga_masiva.xlsx
+++ b/excel_carga_masiva.xlsx
@@ -442,10 +442,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>SAMSUNG PM P2912130R</v>
+        <v>SAMSUNG PM P2177323I</v>
       </c>
       <c r="B2" t="str">
-        <v>P2912130R</v>
+        <v>P2177323I</v>
       </c>
       <c r="C2" t="str">
         <v>familycodex</v>
@@ -475,15 +475,15 @@
         <v>true</v>
       </c>
       <c r="L2" t="str">
-        <v>2024-10-26</v>
+        <v>2024-10-27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SAMSUNG PM P2912131R</v>
+        <v>SAMSUNG PM P2177324I</v>
       </c>
       <c r="B3" t="str">
-        <v>P2912131R</v>
+        <v>P2177324I</v>
       </c>
       <c r="C3" t="str">
         <v>familycodex</v>
@@ -513,15 +513,15 @@
         <v>true</v>
       </c>
       <c r="L3" t="str">
-        <v>2024-10-26</v>
+        <v>2024-10-27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SAMSUNG PM P2912132R</v>
+        <v>SAMSUNG PM P2177325I</v>
       </c>
       <c r="B4" t="str">
-        <v>P2912132R</v>
+        <v>P2177325I</v>
       </c>
       <c r="C4" t="str">
         <v>familycodex</v>
@@ -551,15 +551,15 @@
         <v>true</v>
       </c>
       <c r="L4" t="str">
-        <v>2024-10-26</v>
+        <v>2024-10-27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>SAMSUNG PM P2912133R</v>
+        <v>SAMSUNG PM P2177326I</v>
       </c>
       <c r="B5" t="str">
-        <v>P2912133R</v>
+        <v>P2177326I</v>
       </c>
       <c r="C5" t="str">
         <v>familycodex</v>
@@ -589,121 +589,7 @@
         <v>true</v>
       </c>
       <c r="L5" t="str">
-        <v>2024-10-26</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>SAMSUNG PM P2912134R</v>
-      </c>
-      <c r="B6" t="str">
-        <v>P2912134R</v>
-      </c>
-      <c r="C6" t="str">
-        <v>familycodex</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Motorola</v>
-      </c>
-      <c r="E6" t="str">
-        <v>X59</v>
-      </c>
-      <c r="F6" t="str">
-        <v>High</v>
-      </c>
-      <c r="G6" t="str">
-        <v>High End A</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Nano SIM</v>
-      </c>
-      <c r="I6" t="str">
-        <v>12 meses</v>
-      </c>
-      <c r="J6" t="str">
-        <v>Si</v>
-      </c>
-      <c r="K6" t="str">
-        <v>true</v>
-      </c>
-      <c r="L6" t="str">
-        <v>2024-10-26</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>SAMSUNG PM P2912135R</v>
-      </c>
-      <c r="B7" t="str">
-        <v>P2912135R</v>
-      </c>
-      <c r="C7" t="str">
-        <v>familycodex</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Motorola</v>
-      </c>
-      <c r="E7" t="str">
-        <v>X60</v>
-      </c>
-      <c r="F7" t="str">
-        <v>High</v>
-      </c>
-      <c r="G7" t="str">
-        <v>High End A</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Nano SIM</v>
-      </c>
-      <c r="I7" t="str">
-        <v>12 meses</v>
-      </c>
-      <c r="J7" t="str">
-        <v>Si</v>
-      </c>
-      <c r="K7" t="str">
-        <v>true</v>
-      </c>
-      <c r="L7" t="str">
-        <v>2024-10-26</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>SAMSUNG PM P2912136R</v>
-      </c>
-      <c r="B8" t="str">
-        <v>P2912136R</v>
-      </c>
-      <c r="C8" t="str">
-        <v>familycodex</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Motorola</v>
-      </c>
-      <c r="E8" t="str">
-        <v>X61</v>
-      </c>
-      <c r="F8" t="str">
-        <v>High</v>
-      </c>
-      <c r="G8" t="str">
-        <v>High End A</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Nano SIM</v>
-      </c>
-      <c r="I8" t="str">
-        <v>12 meses</v>
-      </c>
-      <c r="J8" t="str">
-        <v>Si</v>
-      </c>
-      <c r="K8" t="str">
-        <v>true</v>
-      </c>
-      <c r="L8" t="str">
-        <v>2024-10-26</v>
+        <v>2024-10-27</v>
       </c>
     </row>
   </sheetData>
